--- a/Users Loads15.xlsx
+++ b/Users Loads15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4971156350003898</v>
+        <v>7.265391192469247</v>
       </c>
       <c r="C2" t="n">
-        <v>4.188368693799757</v>
+        <v>2.289505750459186</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2187496439353661</v>
+        <v>0.1399112532748791</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.268156749853723</v>
+        <v>7.811802278515938</v>
       </c>
       <c r="C3" t="n">
-        <v>4.364258838473795</v>
+        <v>2.050307014271719</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4790629471860667</v>
+        <v>0.1981202428181996</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.045824875299742</v>
+        <v>14.3227566247079</v>
       </c>
       <c r="C4" t="n">
-        <v>7.250421910392442</v>
+        <v>8.936406751831717</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7450332087555354</v>
+        <v>0.4272122121918474</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.806303918955209</v>
+        <v>16.88489993220953</v>
       </c>
       <c r="C5" t="n">
-        <v>5.11826845136458</v>
+        <v>6.012477187019492</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3833551809317066</v>
+        <v>0.4535650753975081</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.046757159339538</v>
+        <v>18.28164148096764</v>
       </c>
       <c r="C6" t="n">
-        <v>3.735211408106597</v>
+        <v>13.66256479941044</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4043139222331759</v>
+        <v>0.2514677571999552</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.557643328851032</v>
+        <v>24.48864116771765</v>
       </c>
       <c r="C7" t="n">
-        <v>7.236652169372493</v>
+        <v>7.120807562256749</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5371458883272568</v>
+        <v>0.306112972138439</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.154304906236112</v>
+        <v>25.73347585559937</v>
       </c>
       <c r="C8" t="n">
-        <v>7.888165930069435</v>
+        <v>2.830319454781586</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5296462106268311</v>
+        <v>0.1975788348494499</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9.551238202171817</v>
+        <v>28.87934051925563</v>
       </c>
       <c r="C9" t="n">
-        <v>3.224676505912359</v>
+        <v>6.970436320802099</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4723353970562931</v>
+        <v>0.5538783679129307</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10.33000550986101</v>
+        <v>29.69971993147639</v>
       </c>
       <c r="C10" t="n">
-        <v>5.242595121398927</v>
+        <v>6.008647817484561</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7364742389065924</v>
+        <v>0.6279536958464255</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.52878829466522</v>
+        <v>31.91203668630618</v>
       </c>
       <c r="C11" t="n">
-        <v>3.566697635243697</v>
+        <v>3.04234435131688</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4691929525382913</v>
+        <v>0.2358178857882354</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13.48510930808197</v>
+        <v>36.91755722284998</v>
       </c>
       <c r="C12" t="n">
-        <v>4.858293850338873</v>
+        <v>2.108533087115874</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6899611027608027</v>
+        <v>0.2362038618092434</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14.45375461858871</v>
+        <v>37.70277692214988</v>
       </c>
       <c r="C13" t="n">
-        <v>3.332307924987914</v>
+        <v>8.901398927931767</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3750311733182357</v>
+        <v>0.2540547354275904</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15.32461988022681</v>
+        <v>38.66291757121976</v>
       </c>
       <c r="C14" t="n">
-        <v>6.298329581570378</v>
+        <v>7.490423257812824</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5660146201275131</v>
+        <v>0.2324452043824516</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>17.19617902150824</v>
+        <v>39.09265543993001</v>
       </c>
       <c r="C15" t="n">
-        <v>3.571299214766846</v>
+        <v>7.449326835266152</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2923814803184866</v>
+        <v>0.4227217350496563</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>17.3536334737064</v>
+        <v>41.6363905093997</v>
       </c>
       <c r="C16" t="n">
-        <v>3.303421421524249</v>
+        <v>8.170616960320196</v>
       </c>
       <c r="D16" t="n">
-        <v>0.29255552894337</v>
+        <v>0.2124422311800065</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>17.48891002742946</v>
+        <v>41.90748312995698</v>
       </c>
       <c r="C17" t="n">
-        <v>2.51472881651278</v>
+        <v>3.378847766925112</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5399471686361248</v>
+        <v>0.3058519465154988</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21.20167650166262</v>
+        <v>41.99858789600756</v>
       </c>
       <c r="C18" t="n">
-        <v>3.409290298122069</v>
+        <v>8.516773646131657</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1997865390028186</v>
+        <v>0.3718701686735515</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>23.02396420510473</v>
+        <v>42.73958150413009</v>
       </c>
       <c r="C19" t="n">
-        <v>5.151442967265234</v>
+        <v>5.424660277001037</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7497124197331148</v>
+        <v>0.227134799559507</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>25.01757359897601</v>
+        <v>43.77749389299311</v>
       </c>
       <c r="C20" t="n">
-        <v>5.275468464859523</v>
+        <v>5.861603335815606</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2137258597997453</v>
+        <v>0.1887117402152846</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>26.15872272034552</v>
+        <v>44.05412765935304</v>
       </c>
       <c r="C21" t="n">
-        <v>4.143423657882866</v>
+        <v>6.128257947206126</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1156024437407735</v>
+        <v>0.1661479677585717</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>26.63859819833224</v>
+        <v>44.98122425129799</v>
       </c>
       <c r="C22" t="n">
-        <v>5.36128790864651</v>
+        <v>4.66481292942641</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7546176806761733</v>
+        <v>0.2087532139861076</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27.11296622636033</v>
+        <v>55.28875728632658</v>
       </c>
       <c r="C23" t="n">
-        <v>3.676321057794095</v>
+        <v>4.823315248418742</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4462596369625637</v>
+        <v>0.3298690560803595</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>27.2300370781353</v>
+        <v>59.91385195716079</v>
       </c>
       <c r="C24" t="n">
-        <v>5.389012256341918</v>
+        <v>6.341754282474663</v>
       </c>
       <c r="D24" t="n">
-        <v>0.578842510596789</v>
+        <v>0.2170503407700667</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>28.72794548599205</v>
+        <v>61.30344121687569</v>
       </c>
       <c r="C25" t="n">
-        <v>5.451594982716059</v>
+        <v>8.751466659555803</v>
       </c>
       <c r="D25" t="n">
-        <v>0.500378462475411</v>
+        <v>0.5552549529277105</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>29.20478166632142</v>
+        <v>61.4254165802669</v>
       </c>
       <c r="C26" t="n">
-        <v>3.377364888759444</v>
+        <v>4.777204814158328</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3014833130643535</v>
+        <v>0.3043778688954116</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>30.61026494218257</v>
+        <v>63.12384657419217</v>
       </c>
       <c r="C27" t="n">
-        <v>9.927796997519497</v>
+        <v>3.999154067659744</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5200172838462759</v>
+        <v>0.1419374360987956</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>31.02390150524128</v>
+        <v>65.99408544056622</v>
       </c>
       <c r="C28" t="n">
-        <v>4.829579847016968</v>
+        <v>6.558144287484063</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5681597283328398</v>
+        <v>0.50968061995022</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>31.67667544744301</v>
+        <v>69.1947076581037</v>
       </c>
       <c r="C29" t="n">
-        <v>7.711136377178734</v>
+        <v>8.706250343922566</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5427732422403315</v>
+        <v>0.3861721290090526</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>32.23898996371054</v>
+        <v>69.69717146349873</v>
       </c>
       <c r="C30" t="n">
-        <v>2.480843075655797</v>
+        <v>10.00252784474356</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3898260328864728</v>
+        <v>0.2534162461699302</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>32.99853524321807</v>
+        <v>73.18664734296</v>
       </c>
       <c r="C31" t="n">
-        <v>9.684891550574166</v>
+        <v>8.378421816231034</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4824808436562759</v>
+        <v>0.09342956686362087</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>33.64950415622466</v>
+        <v>74.97423535080983</v>
       </c>
       <c r="C32" t="n">
-        <v>5.224475463488978</v>
+        <v>3.619315469642713</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8762137880115655</v>
+        <v>0.4208071442716632</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>35.02374210907946</v>
+        <v>76.45867710675172</v>
       </c>
       <c r="C33" t="n">
-        <v>3.522238403453507</v>
+        <v>1.568732458519641</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4241143277610262</v>
+        <v>0.07879895010860677</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>35.14674396927534</v>
+        <v>76.82034551052746</v>
       </c>
       <c r="C34" t="n">
-        <v>2.753001715017928</v>
+        <v>10.13755102347532</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2599915321191753</v>
+        <v>0.3584104601383816</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>35.20496968391427</v>
+        <v>77.22975107350409</v>
       </c>
       <c r="C35" t="n">
-        <v>5.330182992184755</v>
+        <v>6.704762310784277</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2938302166316965</v>
+        <v>0.4385296134630509</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>35.47446428195085</v>
+        <v>79.60700229288916</v>
       </c>
       <c r="C36" t="n">
-        <v>3.829929658146973</v>
+        <v>10.40058155492467</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4619533189118917</v>
+        <v>0.421132994314417</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>36.00322545250067</v>
+        <v>82.25327833454367</v>
       </c>
       <c r="C37" t="n">
-        <v>1.541068693813386</v>
+        <v>6.929339377160173</v>
       </c>
       <c r="D37" t="n">
-        <v>0.253245335073061</v>
+        <v>0.2899580540947138</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>36.1549446845023</v>
+        <v>82.41092728587255</v>
       </c>
       <c r="C38" t="n">
-        <v>4.572896600148455</v>
+        <v>4.380076312260831</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3184303279060265</v>
+        <v>0.09608714300314959</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>41.35164959713318</v>
+        <v>92.11830305451078</v>
       </c>
       <c r="C39" t="n">
-        <v>1.69246420921822</v>
+        <v>3.009523758323225</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1986512322096045</v>
+        <v>0.1557504303307096</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>43.406880263948</v>
+        <v>92.39998747382235</v>
       </c>
       <c r="C40" t="n">
-        <v>8.155037099409407</v>
+        <v>2.970170360106259</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6906518976962257</v>
+        <v>0.2295117920406854</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>44.6708426099859</v>
+        <v>93.36742002513418</v>
       </c>
       <c r="C41" t="n">
-        <v>1.882841378895496</v>
+        <v>3.696319074735006</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4603695542136706</v>
+        <v>0.2827656966825198</v>
       </c>
     </row>
     <row r="42">
@@ -1015,699 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>46.42903104543796</v>
+        <v>99.84373315293095</v>
       </c>
       <c r="C42" t="n">
-        <v>8.462298180100772</v>
+        <v>5.697406257546728</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6318095222906766</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>47.6809801761625</v>
-      </c>
-      <c r="C43" t="n">
-        <v>3.55428580926517</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.3514455589498023</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>52.7808992179795</v>
-      </c>
-      <c r="C44" t="n">
-        <v>6.11101752108173</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.4279276608314122</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>53.99335258576669</v>
-      </c>
-      <c r="C45" t="n">
-        <v>3.922608663151661</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.5099860770281608</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>54.46740376943035</v>
-      </c>
-      <c r="C46" t="n">
-        <v>4.50941887950909</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.4516323925036231</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>56.5219690792136</v>
-      </c>
-      <c r="C47" t="n">
-        <v>3.385774720098203</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.646255692180763</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>57.56540574920561</v>
-      </c>
-      <c r="C48" t="n">
-        <v>7.854092624030931</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.655492953322404</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>60.2714757526268</v>
-      </c>
-      <c r="C49" t="n">
-        <v>4.961967730874945</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.4159987446170551</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>61.05350652204908</v>
-      </c>
-      <c r="C50" t="n">
-        <v>2.101343937587364</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.2927816444383208</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>61.74806406666116</v>
-      </c>
-      <c r="C51" t="n">
-        <v>3.401484188407613</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.3059974132434745</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>63.87574610591604</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2.450276987131241</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.2438862462278994</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>64.63932970143796</v>
-      </c>
-      <c r="C53" t="n">
-        <v>7.232906747564348</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.5921979589501707</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>67.20995380509733</v>
-      </c>
-      <c r="C54" t="n">
-        <v>3.376051567021131</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.6036115312471171</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>68.35655932258871</v>
-      </c>
-      <c r="C55" t="n">
-        <v>6.801807533270819</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.3396856460889058</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>69.72514372292692</v>
-      </c>
-      <c r="C56" t="n">
-        <v>2.022249744331163</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.4182526063193035</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>70.38184409137632</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4.020902007804193</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.3314779701642341</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>71.0933386218372</v>
-      </c>
-      <c r="C58" t="n">
-        <v>6.552046104622651</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.6591653752424493</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>71.18127059137309</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1.796407941802361</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.3636136277209605</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>72.95841001209855</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2.032614805467682</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.3293447877442234</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>73.13317801918132</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2.075749626403337</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.3395590361190471</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>75.23478689233144</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4.296820361492832</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.3197311859015876</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>76.23206723551949</v>
-      </c>
-      <c r="C63" t="n">
-        <v>5.640313296035592</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.4202787431236231</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>77.99162923550774</v>
-      </c>
-      <c r="C64" t="n">
-        <v>4.61967681132513</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.307574781339145</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>78.11688841776639</v>
-      </c>
-      <c r="C65" t="n">
-        <v>5.332151511302395</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.6822881842029664</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>79.29281048938017</v>
-      </c>
-      <c r="C66" t="n">
-        <v>6.413046655252926</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.4887720976462488</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>79.92701340029468</v>
-      </c>
-      <c r="C67" t="n">
-        <v>3.35908246154765</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.3357185272573047</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>81.05189927074677</v>
-      </c>
-      <c r="C68" t="n">
-        <v>4.701607289721345</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.1208967901997518</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>81.47013843651115</v>
-      </c>
-      <c r="C69" t="n">
-        <v>5.821427508349046</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.7985443269755886</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>81.56333355230301</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1.896427180169778</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.1941983692643889</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>82.48413627210485</v>
-      </c>
-      <c r="C71" t="n">
-        <v>2.786186065842166</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.7139724760562288</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>82.64510167695228</v>
-      </c>
-      <c r="C72" t="n">
-        <v>7.259081567100117</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.5906928296268948</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>83.2231268084102</v>
-      </c>
-      <c r="C73" t="n">
-        <v>6.127146293284399</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.2606825913000143</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>84.79968873920234</v>
-      </c>
-      <c r="C74" t="n">
-        <v>4.115668722375376</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.4823892025081942</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>86.58591460036378</v>
-      </c>
-      <c r="C75" t="n">
-        <v>4.488231563976675</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.2461584111297374</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>87.45465219810704</v>
-      </c>
-      <c r="C76" t="n">
-        <v>4.168511937018205</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.3179113131840681</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>87.57960115079051</v>
-      </c>
-      <c r="C77" t="n">
-        <v>2.204435552953278</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.3319023873958705</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>87.69751842340085</v>
-      </c>
-      <c r="C78" t="n">
-        <v>2.513263262937541</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.262541521260057</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>87.76810525610054</v>
-      </c>
-      <c r="C79" t="n">
-        <v>3.856444570633029</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.4576718574211415</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>91.08053256260384</v>
-      </c>
-      <c r="C80" t="n">
-        <v>3.161190450760993</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.2689050216709228</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>91.10169051112084</v>
-      </c>
-      <c r="C81" t="n">
-        <v>4.397176327749542</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.2474444412868839</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>91.27027450631815</v>
-      </c>
-      <c r="C82" t="n">
-        <v>6.136590609430776</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.5170366036400214</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>92.03391779616126</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1.597337737073074</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.3420492811481933</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>92.70172971576589</v>
-      </c>
-      <c r="C84" t="n">
-        <v>3.3345931365711</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.3436930824096641</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>93.73469380844347</v>
-      </c>
-      <c r="C85" t="n">
-        <v>4.392389525690383</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.6780026430772279</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>93.88889716700608</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1.238701075590447</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.2673599470091525</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>95.03794109683543</v>
-      </c>
-      <c r="C87" t="n">
-        <v>3.704378207421591</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.4520223722393659</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>97.04904497807095</v>
-      </c>
-      <c r="C88" t="n">
-        <v>5.556805232691359</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.4309467599496078</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>97.57519452318972</v>
-      </c>
-      <c r="C89" t="n">
-        <v>3.83935566398238</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.6204469899469107</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>97.68522289981563</v>
-      </c>
-      <c r="C90" t="n">
-        <v>2.45828884743523</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.2833755399875572</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>98.33736651982862</v>
-      </c>
-      <c r="C91" t="n">
-        <v>5.842662487786678</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.4781486390867409</v>
+        <v>0.3270975018477208</v>
       </c>
     </row>
   </sheetData>
